--- a/Bureautique/Excel/TP4 - Matériel DEPART/TP4 - Matériel DEPART/TP - Version départ v1.3.xlsx
+++ b/Bureautique/Excel/TP4 - Matériel DEPART/TP4 - Matériel DEPART/TP - Version départ v1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin.leduc\Downloads\TP4 - Matériel DEPART\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\Ecole-EM\Bureautique\Excel\TP4 - Matériel DEPART\TP4 - Matériel DEPART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B178CF69-611E-40AD-BA86-4B54A9A3B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530C2EE0-B24D-4318-A22C-ECD2FBF8248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5A5B294-0C34-426E-A9B5-A277A2193F29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" firstSheet="1" activeTab="1" xr2:uid="{E5A5B294-0C34-426E-A9B5-A277A2193F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Facture" sheetId="1" r:id="rId1"/>
@@ -82,15 +82,9 @@
     <t>Somme de Prix vendu</t>
   </si>
   <si>
-    <t>Étiquettes de colonnes</t>
-  </si>
-  <si>
     <t>Catégorie</t>
   </si>
   <si>
-    <t>Étiquettes de lignes</t>
-  </si>
-  <si>
     <t>Carte graphique</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>Rasberry PI</t>
-  </si>
-  <si>
-    <t>Total général</t>
   </si>
   <si>
     <t>Année</t>
@@ -617,16 +608,25 @@
   <si>
     <t>1020-1030-1040</t>
   </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +712,12 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Minecraft"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1008,11 +1014,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1020,13 +1026,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,15 +1080,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1110,30 +1119,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
-    <cellStyle name="Titre 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1195,20 +1186,3233 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA">
+                <a:latin typeface="Minecraft" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>Année 2020 - Total des recettes par catégorie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6044-4FA5-9FD5-587C9F464CAB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6044-4FA5-9FD5-587C9F464CAB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6679-47B6-9658-1F91635B2D58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphiques!$C$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Carte graphique</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processeur</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rasberry PI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphiques!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.00_)\ "$"_ ;_ * \(#,##0.00\)\ "$"_ ;_ * "-"??_)\ "$"_ ;_ @_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20915.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1049.4000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6679-47B6-9658-1F91635B2D58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA">
+                <a:latin typeface="Minecraft" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0">
+                <a:latin typeface="Minecraft" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t> des recettes par catégories/années</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA">
+              <a:latin typeface="Minecraft" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphiques!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Graphiques!$B$4:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Graphiques!$C$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Carte graphique</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processeur</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rasberry PI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Graphiques!$B$5:$E$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Graphiques!$C$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.00_)\ "$"_ ;_ * \(#,##0.00\)\ "$"_ ;_ * "-"??_)\ "$"_ ;_ @_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21843.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1399.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8C3-4833-B204-6C4091C0A9BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphiques!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Graphiques!$B$4:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Graphiques!$C$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Carte graphique</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processeur</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rasberry PI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Graphiques!$B$6:$E$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Graphiques!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.00_)\ "$"_ ;_ * \(#,##0.00\)\ "$"_ ;_ * "-"??_)\ "$"_ ;_ @_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20915.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1049.4000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8C3-4833-B204-6C4091C0A9BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphiques!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Graphiques!$B$4:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Graphiques!$C$4:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Carte graphique</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processeur</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rasberry PI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Graphiques!$B$7:$E$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Graphiques!$C$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.00_)\ "$"_ ;_ * \(#,##0.00\)\ "$"_ ;_ * "-"??_)\ "$"_ ;_ @_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11123.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2193.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1188.0000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F8C3-4833-B204-6C4091C0A9BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="2000310960"/>
+        <c:axId val="1991818048"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2000310960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1991818048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1991818048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2000310960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA">
+                <a:latin typeface="Minecraft" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>Rasberry</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0">
+                <a:latin typeface="Minecraft" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t> PI - Répartition des recettes par années</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA">
+              <a:latin typeface="Minecraft" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphiques!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-325E-4DBE-AF0F-A28855685ADF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-325E-4DBE-AF0F-A28855685ADF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-325E-4DBE-AF0F-A28855685ADF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B98FBA40-9DC6-4EAC-94EF-C79E14F10D49}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{7B81ACE7-3045-420A-B606-5C087F57BDB4}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>; </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-325E-4DBE-AF0F-A28855685ADF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{08A7C75B-5338-4D4F-B5F4-3C00664D19CF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{F0CD572E-F435-4050-ABBD-58874ADCE252}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>; </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-325E-4DBE-AF0F-A28855685ADF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{73F95387-8F5B-4630-9902-7F02022B89D9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{DAC73203-A6D6-4ABB-B4BF-AD0728048F90}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>; </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-325E-4DBE-AF0F-A28855685ADF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphiques!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.00_)\ "$"_ ;_ * \(#,##0.00\)\ "$"_ ;_ * "-"??_)\ "$"_ ;_ @_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1399.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1049.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1188.0000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphiques!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Graphiques!$E$5:$E$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v> 1,399.20  $ </c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v> 1,049.40  $ </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v> 1,188.00  $ </c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-325E-4DBE-AF0F-A28855685ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphiques!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphiques!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.00_)\ "$"_ ;_ * \(#,##0.00\)\ "$"_ ;_ * "-"??_)\ "$"_ ;_ @_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1399.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1049.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1188.0000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphiques!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.00_)\ "$"_ ;_ * \(#,##0.00\)\ "$"_ ;_ * "-"??_)\ "$"_ ;_ @_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1399.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1049.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1188.0000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-325E-4DBE-AF0F-A28855685ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphiques!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>Graphiques!$E$5:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>_ * #,##0.00_)\ "$"_ ;_ * \(#,##0.00\)\ "$"_ ;_ * "-"??_)\ "$"_ ;_ @_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1399.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1049.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1188.0000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-325E-4DBE-AF0F-A28855685ADF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>639278</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>67656</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>34160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15363</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1231,8 +4435,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="85725"/>
-          <a:ext cx="7906853" cy="7030431"/>
+          <a:off x="11924366" y="227667"/>
+          <a:ext cx="8280382" cy="7168637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1303,13 +4507,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>391172</xdr:colOff>
+      <xdr:colOff>410222</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>67071</xdr:rowOff>
     </xdr:to>
@@ -1334,8 +4538,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6638925" y="5619750"/>
-          <a:ext cx="4639322" cy="2838846"/>
+          <a:off x="6946900" y="5546725"/>
+          <a:ext cx="4836172" cy="2743596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1396,6 +4600,114 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895349</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CBD67E4-CD0E-02E2-B422-0E52654A66B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>927099</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AEEBB00-6965-1691-6EEB-86487C746A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>869949</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B6D53B-B45A-C0B2-AB8A-BB37F7603ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2217,7 +5529,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="kevin.leduc" refreshedDate="44879.433922337965" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="77" xr:uid="{AE6BD6E3-2EB6-4206-892C-3C7DA1E48995}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Cédric Daigneault" refreshedDate="44886.587310995368" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="77" xr:uid="{AE6BD6E3-2EB6-4206-892C-3C7DA1E48995}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:J81" sheet="Historique des achats d'article"/>
   </cacheSource>
@@ -3121,7 +6433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F74134B-EF9C-4631-94FB-CD7CAC23E22E}" name="Tableau croisé dynamique4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F74134B-EF9C-4631-94FB-CD7CAC23E22E}" name="Tableau croisé dynamique4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I2:M7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -3188,30 +6500,30 @@
     <dataField name="Somme de Prix vendu" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="12">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3228,7 +6540,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3529,61 +6841,61 @@
   </sheetPr>
   <dimension ref="AA1:AA100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z93" sqref="Z93"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
-    <col min="2" max="26" width="11.44140625" style="2"/>
-    <col min="27" max="27" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="2.6328125" style="29" customWidth="1"/>
+    <col min="2" max="26" width="11.453125" style="29"/>
+    <col min="27" max="27" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.453125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA100" s="2" t="s">
-        <v>136</v>
+    <row r="1" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA100" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3597,79 +6909,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8273C88-EE53-45AC-AE00-C7E2FFA661B7}">
   <dimension ref="B1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.6328125" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="26.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.90625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="I3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="I3" s="4" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="24" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
+      <c r="C4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>10</v>
       </c>
       <c r="I4" s="24">
         <v>2019</v>
@@ -3687,7 +6999,7 @@
         <v>27445.000000000004</v>
       </c>
     </row>
-    <row r="5" spans="2:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" s="24" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="22">
         <v>2019</v>
       </c>
@@ -3723,7 +7035,7 @@
         <v>28509.800000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" s="24" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="22">
         <v>2020</v>
       </c>
@@ -3759,7 +7071,7 @@
         <v>14504.6</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" s="24" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="22">
         <v>2021</v>
       </c>
@@ -3780,7 +7092,7 @@
         <v>14504.6</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="J7" s="28">
         <v>53882.400000000009</v>
@@ -3795,9 +7107,9 @@
         <v>70459.400000000009</v>
       </c>
     </row>
-    <row r="8" spans="2:13" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" s="24" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="26">
         <f>GETPIVOTDATA("Prix vendu",$I$2,"Catégorie","Carte graphique")</f>
@@ -3822,10 +7134,10 @@
     <mergeCell ref="C3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3844,38 +7156,38 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="72" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="43.08984375" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" customWidth="1"/>
+    <col min="4" max="5" width="25.6328125" customWidth="1"/>
+    <col min="6" max="72" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="B4" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="B12" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="B30" s="21" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B4" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B12" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B30" s="21" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3891,34 +7203,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2C9FF3-5D31-469F-BA6F-5F9F9C68D4A8}">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F12:F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7">
         <v>9.9750000000000005E-2</v>
@@ -3938,52 +7252,52 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="9">
         <v>498</v>
@@ -3993,15 +7307,15 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="9">
         <v>492</v>
@@ -4011,15 +7325,15 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9">
         <v>2002</v>
@@ -4029,15 +7343,15 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9">
         <v>1038</v>
@@ -4047,15 +7361,15 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="9">
         <v>546</v>
@@ -4065,15 +7379,15 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="9">
         <v>604</v>
@@ -4083,15 +7397,15 @@
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9">
         <v>174</v>
@@ -4101,15 +7415,15 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" s="9">
         <v>104</v>
@@ -4119,15 +7433,15 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="9">
         <v>74</v>
@@ -4137,15 +7451,15 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="9">
         <v>84</v>
@@ -4155,15 +7469,15 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="9">
         <v>1764</v>
@@ -4173,15 +7487,15 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="9">
         <v>144</v>
@@ -4191,15 +7505,15 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="9">
         <v>538</v>
@@ -4209,15 +7523,15 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" s="9">
         <v>92</v>
@@ -4227,15 +7541,15 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E18" s="9">
         <v>2040</v>
@@ -4245,15 +7559,15 @@
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" s="9">
         <v>120</v>
@@ -4263,15 +7577,15 @@
       </c>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" s="9">
         <v>654</v>
@@ -4281,15 +7595,15 @@
       </c>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="9">
         <v>1900</v>
@@ -4299,15 +7613,15 @@
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E22" s="9">
         <v>2202</v>
@@ -4317,15 +7631,15 @@
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E23" s="9">
         <v>586</v>
@@ -4335,15 +7649,15 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" s="9">
         <v>480</v>
@@ -4353,15 +7667,15 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E25" s="9">
         <v>1194</v>
@@ -4371,15 +7685,15 @@
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="9">
         <v>2066</v>
@@ -4389,15 +7703,15 @@
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" s="9">
         <v>64</v>
@@ -4407,15 +7721,15 @@
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E28" s="9">
         <v>1786</v>
@@ -4425,15 +7739,15 @@
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E29" s="9">
         <v>1800</v>
@@ -4443,15 +7757,15 @@
       </c>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E30" s="9">
         <v>178</v>
@@ -4461,15 +7775,15 @@
       </c>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E31" s="16">
         <v>752</v>
@@ -4484,7 +7798,7 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B31">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4499,78 +7813,78 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="21.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="34" t="s">
+    <row r="3" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="H4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="J4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D5" s="9" t="str">
         <f t="shared" ref="D5:D36" si="0">VLOOKUP(B5,donneesArticlesSansEntete,2,FALSE)</f>
@@ -4596,12 +7910,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4627,12 +7941,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4658,12 +7972,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D8" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4689,12 +8003,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4720,12 +8034,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4751,12 +8065,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4782,12 +8096,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4813,12 +8127,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4844,12 +8158,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4875,12 +8189,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4906,12 +8220,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4937,12 +8251,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4968,12 +8282,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4999,12 +8313,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5030,12 +8344,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5061,12 +8375,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5092,12 +8406,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5123,12 +8437,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5154,12 +8468,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5185,12 +8499,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5216,12 +8530,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5247,12 +8561,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5278,12 +8592,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5309,12 +8623,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5340,12 +8654,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5371,12 +8685,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D31" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5402,12 +8716,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5433,12 +8747,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D33" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5464,12 +8778,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D34" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5495,12 +8809,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D35" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5526,12 +8840,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D36" s="9" t="str">
         <f t="shared" si="0"/>
@@ -5557,12 +8871,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D37" s="9" t="str">
         <f t="shared" ref="D37:D68" si="2">VLOOKUP(B37,donneesArticlesSansEntete,2,FALSE)</f>
@@ -5588,12 +8902,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D38" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5619,12 +8933,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D39" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5650,12 +8964,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D40" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5681,12 +8995,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5712,12 +9026,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5743,12 +9057,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D43" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5774,12 +9088,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D44" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5805,12 +9119,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D45" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5836,12 +9150,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D46" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5867,12 +9181,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D47" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5898,12 +9212,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D48" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5929,12 +9243,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D49" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5960,12 +9274,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D50" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5991,12 +9305,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D51" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6022,12 +9336,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D52" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6053,12 +9367,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D53" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6084,12 +9398,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D54" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6115,12 +9429,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D55" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6146,12 +9460,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D56" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6177,12 +9491,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D57" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6208,12 +9522,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D58" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6239,12 +9553,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D59" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6270,12 +9584,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D60" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6301,12 +9615,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D61" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6332,12 +9646,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D62" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6363,12 +9677,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D63" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6394,12 +9708,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D64" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6425,12 +9739,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D65" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6456,12 +9770,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D66" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6487,12 +9801,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D67" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6518,12 +9832,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D68" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6549,12 +9863,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D69" s="9" t="str">
         <f t="shared" ref="D69:D81" si="4">VLOOKUP(B69,donneesArticlesSansEntete,2,FALSE)</f>
@@ -6580,12 +9894,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D70" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6611,12 +9925,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D71" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6642,12 +9956,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D72" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6673,12 +9987,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D73" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6704,12 +10018,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D74" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6735,12 +10049,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D75" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6766,12 +10080,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D76" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6797,12 +10111,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D77" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6828,12 +10142,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D78" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6859,12 +10173,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D79" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6890,12 +10204,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D80" s="9" t="str">
         <f t="shared" si="4"/>
@@ -6921,12 +10235,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B81" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D81" s="16" t="str">
         <f t="shared" si="4"/>
@@ -6970,211 +10284,211 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="35.6328125" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:7" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="10" t="s">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="F4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="G7" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="D8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="C9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="C11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="27:27" x14ac:dyDescent="0.35">
+      <c r="AA100" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="27:27" x14ac:dyDescent="0.3">
-      <c r="AA100" s="27" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -7187,6 +10501,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D931F8C0E0C8FD498DCE215A43B5086B" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e8cfa8c6d51e11b229aeea9a1b00dc6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d16599ee-1fee-4a6c-bf48-0661c55be9ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0be964f89dd4a0cbae0032f90d19e5c4" ns2:_="">
     <xsd:import namespace="d16599ee-1fee-4a6c-bf48-0661c55be9ae"/>
@@ -7358,7 +10681,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d16599ee-1fee-4a6c-bf48-0661c55be9ae">
@@ -7368,16 +10691,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E2F1E3F-78B9-499A-B5E0-D605CE99B315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F5722B2-D11D-4EB7-BD34-A35D7CB70AD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7395,7 +10717,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E6F21DC-4FCE-453F-A9CC-DEA9A3B0EF42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7403,12 +10725,4 @@
     <ds:schemaRef ds:uri="d16599ee-1fee-4a6c-bf48-0661c55be9ae"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E2F1E3F-78B9-499A-B5E0-D605CE99B315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Bureautique/Excel/TP4 - Matériel DEPART/TP4 - Matériel DEPART/TP - Version départ v1.3.xlsx
+++ b/Bureautique/Excel/TP4 - Matériel DEPART/TP4 - Matériel DEPART/TP - Version départ v1.3.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedri\Documents\Ecole-EM\Bureautique\Excel\TP4 - Matériel DEPART\TP4 - Matériel DEPART\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530C2EE0-B24D-4318-A22C-ECD2FBF8248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD9A54-CA19-4F11-A44D-E12E7A2421F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" firstSheet="1" activeTab="1" xr2:uid="{E5A5B294-0C34-426E-A9B5-A277A2193F29}"/>
+    <workbookView xWindow="-28920" yWindow="2385" windowWidth="29040" windowHeight="16440" xr2:uid="{E5A5B294-0C34-426E-A9B5-A277A2193F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Facture" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,11 @@
     <definedName name="donneesClientsSansEntete">#REF!</definedName>
     <definedName name="donneesHistoriqueAvecEntete" localSheetId="5">'Historique des achats d''article'!$B$4:$J$81</definedName>
     <definedName name="donneesHistoriqueAvecEntete">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Facture!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="5" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -60,8 +60,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="176">
   <si>
     <r>
       <t xml:space="preserve">Graphiques
@@ -609,24 +631,143 @@
     <t>1020-1030-1040</t>
   </si>
   <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
+    <t>Prix moyen de vente</t>
+  </si>
+  <si>
+    <t>Prix de l'article le moins cher</t>
+  </si>
+  <si>
+    <t>Prix de l'article le plus cher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type d'article </t>
+  </si>
+  <si>
+    <t>Nombre total d'article achetés</t>
+  </si>
+  <si>
+    <t>Nombre total d'article vendus</t>
+  </si>
+  <si>
+    <t>Total des recettes</t>
+  </si>
+  <si>
+    <t>Type d'article</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>Nombre d'article vendus</t>
+  </si>
+  <si>
+    <t>Années</t>
+  </si>
+  <si>
+    <t>total général</t>
+  </si>
+  <si>
+    <t>Information sur le client</t>
+  </si>
+  <si>
+    <t>Numero de client</t>
+  </si>
+  <si>
+    <t>Nom du client</t>
+  </si>
+  <si>
+    <t>Numero de telephone</t>
+  </si>
+  <si>
+    <t>Étiquettes de colonnes</t>
+  </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>Liste des article commandee</t>
+  </si>
+  <si>
+    <t>No. Article</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantites</t>
+  </si>
+  <si>
+    <t>Poids unitaire (g)</t>
+  </si>
+  <si>
+    <t>Prix unitaire</t>
+  </si>
+  <si>
+    <t>Prix total</t>
+  </si>
+  <si>
+    <t>Poids total (g)</t>
+  </si>
+  <si>
+    <t>a01</t>
+  </si>
+  <si>
+    <t>a02</t>
+  </si>
+  <si>
+    <t>Statistique sur la facture</t>
+  </si>
+  <si>
+    <t>Sous-Total et rabais</t>
+  </si>
+  <si>
+    <t>Nb d'article differents achetes</t>
+  </si>
+  <si>
+    <t>Nb d'article achetes</t>
+  </si>
+  <si>
+    <t>Nb de boites necessaires (250g)</t>
+  </si>
+  <si>
+    <t>Prix de l'article le moin cher</t>
+  </si>
+  <si>
+    <t>Prix moyen de vente d'un article</t>
+  </si>
+  <si>
+    <t>Sous-total</t>
+  </si>
+  <si>
+    <t>Rabais #1 - (10% si 3 articles differents achetes ou plus)</t>
+  </si>
+  <si>
+    <t>Rabais #2 - (5% si au moin 2 boites necessaires)</t>
+  </si>
+  <si>
+    <t>Rabais #3 - (10% si plus de 500g)</t>
+  </si>
+  <si>
+    <t>Montant TPS</t>
+  </si>
+  <si>
+    <t>Montant TVQ</t>
+  </si>
+  <si>
+    <t>Montant avec les taxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_)\ &quot;$&quot;_ ;_ * \(#,##0\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,8 +860,14 @@
       <name val="Minecraft"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Minecraft"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -763,8 +910,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1011,6 +1182,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1018,7 +1393,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,6 +1468,152 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1119,12 +1640,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
+    <cellStyle name="Titre 3" xfId="3" builtinId="18"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1134,6 +1673,12 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ * #,##0_)\ &quot;$&quot;_ ;_ * \(#,##0\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ * #,##0_)\ &quot;$&quot;_ ;_ * \(#,##0\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -1175,6 +1720,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1189,7 +1739,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1520,7 +2070,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2084,7 +2634,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2248,19 +2798,19 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B98FBA40-9DC6-4EAC-94EF-C79E14F10D49}" type="CELLRANGE">
+                    <a:fld id="{40AD67BD-3B04-4299-B431-3998E4B28610}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[PLAGECELL]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{7B81ACE7-3045-420A-B606-5C087F57BDB4}" type="VALUE">
+                    <a:fld id="{7B9851A0-80FC-4F22-921C-31AAF50315C4}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALEUR]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2292,19 +2842,19 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08A7C75B-5338-4D4F-B5F4-3C00664D19CF}" type="CELLRANGE">
+                    <a:fld id="{1A3D6899-4FA0-4C33-8ABD-4B4C20E29AED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[PLAGECELL]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{F0CD572E-F435-4050-ABBD-58874ADCE252}" type="VALUE">
+                    <a:fld id="{EBAAB1BD-55EF-4F36-ABB3-B0D8F4DFF05A}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALEUR]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2336,19 +2886,19 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73F95387-8F5B-4630-9902-7F02022B89D9}" type="CELLRANGE">
+                    <a:fld id="{E6BF5F59-BA1E-43B1-B301-580030EE1E38}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
+                      <a:t>[PLAGECELL]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:t>; </a:t>
                     </a:r>
-                    <a:fld id="{DAC73203-A6D6-4ABB-B4BF-AD0728048F90}" type="VALUE">
+                    <a:fld id="{AAEEAFFF-0D44-4F86-AA68-71AA92E9A1A5}" type="VALUE">
                       <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[VALEUR]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
@@ -2518,6 +3068,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2F41-4B97-A7CA-EB803A3563CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2533,6 +3088,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2F41-4B97-A7CA-EB803A3563CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2548,6 +3108,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2F41-4B97-A7CA-EB803A3563CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -2619,6 +3184,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2F41-4B97-A7CA-EB803A3563CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -4403,16 +4973,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546660</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>229720</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33432</xdr:rowOff>
+      <xdr:rowOff>8030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>34160</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>15363</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>500138</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4435,8 +5005,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11924366" y="227667"/>
-          <a:ext cx="8280382" cy="7168637"/>
+          <a:off x="13374220" y="176118"/>
+          <a:ext cx="8226594" cy="6979631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4718,15 +5288,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95901</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>162118</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>502301</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>143068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4749,8 +5319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096500" y="1143000"/>
-          <a:ext cx="4667901" cy="1381318"/>
+          <a:off x="7477125" y="1292225"/>
+          <a:ext cx="4893326" cy="1336868"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4767,15 +5337,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>562798</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>124241</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219898</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4798,8 +5368,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096500" y="3009900"/>
-          <a:ext cx="5896798" cy="2981741"/>
+          <a:off x="7521575" y="2797175"/>
+          <a:ext cx="6166673" cy="2838866"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4816,15 +5386,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>686959</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114513</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>325009</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4847,8 +5417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096500" y="6248400"/>
-          <a:ext cx="8306959" cy="1524213"/>
+          <a:off x="5102225" y="5778500"/>
+          <a:ext cx="8691134" cy="1470238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5529,7 +6099,121 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Cédric Daigneault" refreshedDate="44886.587310995368" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="77" xr:uid="{AE6BD6E3-2EB6-4206-892C-3C7DA1E48995}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Cédric Daigneault" refreshedDate="44890.69905787037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="77" xr:uid="{86056E6C-2FB9-4044-B830-7A5325227328}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="donneesHistoriqueAvecEntete" sheet="Historique des achats d'article"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="No Article" numFmtId="0">
+      <sharedItems count="28">
+        <s v="A28"/>
+        <s v="A13"/>
+        <s v="A22"/>
+        <s v="A11"/>
+        <s v="A05"/>
+        <s v="A16"/>
+        <s v="A18"/>
+        <s v="A07"/>
+        <s v="A02"/>
+        <s v="A23"/>
+        <s v="A19"/>
+        <s v="A15"/>
+        <s v="A25"/>
+        <s v="A08"/>
+        <s v="A27"/>
+        <s v="A04"/>
+        <s v="A09"/>
+        <s v="A20"/>
+        <s v="A01"/>
+        <s v="A10"/>
+        <s v="A24"/>
+        <s v="A06"/>
+        <s v="A03"/>
+        <s v="A17"/>
+        <s v="A26"/>
+        <s v="A21"/>
+        <s v="A12"/>
+        <s v="A14"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="No Client" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Catégorie" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Processeur"/>
+        <s v="Carte graphique"/>
+        <s v="Rasberry PI"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Article" numFmtId="0">
+      <sharedItems count="28">
+        <s v="Intel Core i9 7900x"/>
+        <s v="Intel Core i7 8700k"/>
+        <s v="GRID M60-1Q"/>
+        <s v="GeForce GTX 1080"/>
+        <s v="Intel Core i9 7920x"/>
+        <s v="Raspberry Pi modèle 1 B"/>
+        <s v="Tesla M6"/>
+        <s v="Raspberry Pi modèle 3 A+"/>
+        <s v="AMD Ryzen Threadripper 1920X"/>
+        <s v="GeForce GTX 1070 Ti"/>
+        <s v="FirePro W9100"/>
+        <s v="Quadro M5000"/>
+        <s v="GRID M60-2Q"/>
+        <s v="Raspberry Pi modèle 3 B+"/>
+        <s v="Raspberry Pi modèle 4 B"/>
+        <s v="Quadro P2000"/>
+        <s v="Raspberry Pi modèle 1 A+"/>
+        <s v="Intel Core i7 6900K"/>
+        <s v="Intel Core i7 7820X"/>
+        <s v="Raspberry Pi modèle 3 B"/>
+        <s v="Raspberry Pi modèle 1 B+"/>
+        <s v="AMD Ryzen Threadripper 1950X"/>
+        <s v="Radeon RX Vega 56"/>
+        <s v="AMD Ryzen 5 1600X"/>
+        <s v="Radeon RX Vega 6°4"/>
+        <s v="AMD Ryzen Threadripper 1900X"/>
+        <s v="Raspberry Pi modèle 1 A"/>
+        <s v="Raspberry Pi modèle 2 B"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Quantité achetée" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="4"/>
+        <n v="1"/>
+        <n v="5"/>
+        <n v="2"/>
+        <n v="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Prix vendu" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="48.400000000000006" maxValue="2728"/>
+    </cacheField>
+    <cacheField name="Année" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2019" maxValue="2021" count="3">
+        <n v="2020"/>
+        <n v="2019"/>
+        <n v="2021"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Mois" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12"/>
+    </cacheField>
+    <cacheField name="Jour" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="28"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Cédric Daigneault" refreshedDate="44891.529602546296" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="77" xr:uid="{AE6BD6E3-2EB6-4206-892C-3C7DA1E48995}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B4:J81" sheet="Historique des achats d'article"/>
   </cacheSource>
@@ -5583,6 +6267,858 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="77">
   <r>
+    <x v="0"/>
+    <s v="C1006"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="783.2"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="C1003"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="591.80000000000007"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="C1008"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1254"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="C1007"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1940.4"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="C1003"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="391.6"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="C1008"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="132"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="C1001"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="165"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="C1001"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="2090"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="C1004"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="184.8"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="C1001"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="594"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="C1008"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="2248.4"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="C1005"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="4"/>
+    <n v="2422.2000000000003"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="C1004"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="2200"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="C1003"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="1964.6000000000001"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="C1002"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="3"/>
+    <n v="145.20000000000002"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="C1003"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="169.4"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="C1001"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="3"/>
+    <n v="1141.8000000000002"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="C1006"/>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="81.400000000000006"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="C1005"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="2244"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="C1004"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="121.00000000000001"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="C1002"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="990.00000000000011"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="C1005"/>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="3"/>
+    <n v="644.6"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="C1002"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="3"/>
+    <n v="195.8"/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="C1004"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="748.00000000000011"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="C1002"/>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="3"/>
+    <n v="547.80000000000007"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="C1006"/>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="3"/>
+    <n v="90.2"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="C1003"/>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="112.2"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="C1007"/>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="2"/>
+    <n v="752.40000000000009"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="C1002"/>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="4"/>
+    <n v="70.400000000000006"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="C1005"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="187.00000000000003"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="C1007"/>
+    <x v="0"/>
+    <x v="18"/>
+    <x v="2"/>
+    <n v="569.80000000000007"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="C1007"/>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="4"/>
+    <n v="2006.4"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="C1003"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="0"/>
+    <n v="176"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="C1002"/>
+    <x v="0"/>
+    <x v="23"/>
+    <x v="3"/>
+    <n v="719.40000000000009"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="C1002"/>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="2"/>
+    <n v="2202.2000000000003"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="C1005"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="563.20000000000005"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="C1001"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="2728"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="C1005"/>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="1"/>
+    <n v="114.4"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="C1004"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="3"/>
+    <n v="1980.0000000000002"/>
+    <x v="2"/>
+    <n v="11"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="C1001"/>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="0"/>
+    <n v="624.80000000000007"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="C1007"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="1892.0000000000002"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="C1007"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="541.20000000000005"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="C1008"/>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="1"/>
+    <n v="2134"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="C1007"/>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="0"/>
+    <n v="2030.6000000000001"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="C1003"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1232"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="C1007"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="2299"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="C1005"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="2252.8000000000002"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="C1008"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="1"/>
+    <n v="517"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="C1004"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="2248.4"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="C1006"/>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="2"/>
+    <n v="191.4"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="C1008"/>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="2"/>
+    <n v="66"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="C1007"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="2305.6000000000004"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="C1007"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="600.6"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="C1006"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="1313.4"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="C1002"/>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="4"/>
+    <n v="92.4"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="C1005"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <n v="1782.0000000000002"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="C1004"/>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="0"/>
+    <n v="178.20000000000002"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="C1005"/>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="0"/>
+    <n v="664.40000000000009"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="C1002"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="191.4"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="C1001"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <n v="1914.0000000000002"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="C1008"/>
+    <x v="0"/>
+    <x v="25"/>
+    <x v="0"/>
+    <n v="528"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="C1003"/>
+    <x v="0"/>
+    <x v="21"/>
+    <x v="1"/>
+    <n v="704"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="C1004"/>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="1"/>
+    <n v="48.400000000000006"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="C1006"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="2272.6000000000004"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="C1004"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="827.2"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="C1003"/>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="1"/>
+    <n v="74.800000000000011"/>
+    <x v="2"/>
+    <n v="11"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="C1001"/>
+    <x v="2"/>
+    <x v="26"/>
+    <x v="1"/>
+    <n v="158.4"/>
+    <x v="1"/>
+    <n v="6"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="C1006"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="195.8"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="C1004"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="3"/>
+    <n v="1914.0000000000002"/>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="C1003"/>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="3"/>
+    <n v="631.40000000000009"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="C1001"/>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="2"/>
+    <n v="92.4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="C1006"/>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="0"/>
+    <n v="66"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="C1008"/>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="0"/>
+    <n v="121.00000000000001"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="C1002"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="4"/>
+    <n v="880.00000000000011"/>
+    <x v="2"/>
+    <n v="6"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="C1006"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="396.00000000000006"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="C1008"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="4"/>
+    <n v="114.4"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="C1001"/>
+    <x v="2"/>
+    <x v="27"/>
+    <x v="3"/>
+    <n v="101.2"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="77">
+  <r>
     <s v="A28"/>
     <s v="C1006"/>
     <x v="0"/>
@@ -6433,7 +7969,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F74134B-EF9C-4631-94FB-CD7CAC23E22E}" name="Tableau croisé dynamique4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F74134B-EF9C-4631-94FB-CD7CAC23E22E}" name="Tableau croisé dynamique4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I2:M7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -6500,30 +8036,30 @@
     <dataField name="Somme de Prix vendu" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="6">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -6539,8 +8075,375 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EEF2B37-0414-4C8E-88A1-725B8ECCCD84}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="total général" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Années">
+  <location ref="B12:D25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="29">
+        <item x="18"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="3"/>
+        <item x="26"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="23"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="24"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="29">
+        <item x="23"/>
+        <item x="25"/>
+        <item x="8"/>
+        <item x="21"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item x="27"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="6"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Nombre d'article vendus" fld="4" baseField="6" baseItem="0"/>
+    <dataField name="Total des recettes" fld="5" baseField="6" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{09827042-9C46-4AFB-AF80-17C7435EE8AE}" name="PivotTable9" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" grandTotalCaption="Total général" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Type d'article ">
+  <location ref="B28:F33" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="29">
+        <item x="18"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="3"/>
+        <item x="26"/>
+        <item x="1"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="23"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="24"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Nombre total d'article achetés" fld="4" baseField="2" baseItem="0"/>
+    <dataField name="Prix moyen de vente" fld="5" subtotal="average" baseField="2" baseItem="0"/>
+    <dataField name="Prix de l'article le moins cher" fld="5" subtotal="min" baseField="2" baseItem="0"/>
+    <dataField name="Prix de l'article le plus cher" fld="5" subtotal="max" baseField="2" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2FBD96A1-2291-481C-990A-1B911C522D2A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total général" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Type d'article">
+  <location ref="B5:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Nombre total d'article vendus" fld="4" baseField="2" baseItem="0"/>
+    <dataField name="Total des recettes" fld="5" baseField="2" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6839,68 +8742,609 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="AA1:AA100"/>
+  <dimension ref="B3:AA100"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I37:I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="29" customWidth="1"/>
-    <col min="2" max="26" width="11.453125" style="29"/>
-    <col min="27" max="27" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" style="29" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" style="29"/>
+    <col min="4" max="4" width="11.453125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="37.81640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="29"/>
+    <col min="7" max="7" width="17.1796875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.08984375" style="29" customWidth="1"/>
+    <col min="10" max="10" width="37.81640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="11.453125" style="29"/>
+    <col min="27" max="27" width="17.7265625" style="29" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="11.453125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="35" t="str">
+        <f>IFERROR(VLOOKUP(E$4,'Liste des clients'!B:G,3,FALSE),"Le numéro de client doit être valide ")</f>
+        <v>3, rue Montcalm</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="33" t="str">
+        <f>IFERROR(VLOOKUP(E$4,'Liste des clients'!B:G,2,FALSE),"Le numéro de client doit être valide")</f>
+        <v>Best Buy</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="36" t="str">
+        <f>IFERROR(VLOOKUP(E$4,'Liste des clients'!B:G,4,FALSE),"Le numéro de client doit être valide ")</f>
+        <v>LaPrarie</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="34" t="str">
+        <f>IFERROR(VLOOKUP($E4,'Liste des clients'!B:G,6,FALSE),"Le numéro de client doit être valide ")</f>
+        <v>(450) 659-1253</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="37" t="str">
+        <f>IFERROR(VLOOKUP(E$4,'Liste des clients'!B:G,5,FALSE),"Le numéro de client doit être valide ")</f>
+        <v>Québec</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="67" t="str">
+        <f>IFERROR(VLOOKUP(B11,'Liste des articles'!B:F,3,FALSE),"Le numero d'article n'est pas valide")</f>
+        <v>Intel Core i7 7820X</v>
+      </c>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44">
+        <f>IFERROR(VLOOKUP(B11,'Liste des articles'!B:F,4,FALSE),"---")</f>
+        <v>498</v>
+      </c>
+      <c r="H11" s="45">
+        <f>IFERROR(VLOOKUP(B11,'Liste des articles'!B:F,5,FALSE),"---")</f>
+        <v>6</v>
+      </c>
+      <c r="I11" s="44">
+        <f>IFERROR(SUM(F11*G11),"---")</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="46">
+        <f>IFERROR(SUM(F11*H11),"---")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="67" t="str">
+        <f>IFERROR(VLOOKUP(B12,'Liste des articles'!B:F,3,FALSE),"Le numero d'article n'est pas valide")</f>
+        <v>AMD Ryzen Threadripper 1920X</v>
+      </c>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="43">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="44">
+        <f>IFERROR(VLOOKUP(B12,'Liste des articles'!B:F,4,FALSE),"---")</f>
+        <v>492</v>
+      </c>
+      <c r="H12" s="45">
+        <f>IFERROR(VLOOKUP(B12,'Liste des articles'!B:F,5,FALSE),"---")</f>
+        <v>6</v>
+      </c>
+      <c r="I12" s="44">
+        <f t="shared" ref="I12:I20" si="0">IFERROR(SUM(F12*G12),"---")</f>
+        <v>492000</v>
+      </c>
+      <c r="J12" s="46">
+        <f t="shared" ref="J12:J20" si="1">IFERROR(SUM(F12*H12),"---")</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="42"/>
+      <c r="C13" s="67" t="str">
+        <f>IFERROR(VLOOKUP(B13,'Liste des articles'!B:F,3,FALSE),"Le numero d'article n'est pas valide")</f>
+        <v>Le numero d'article n'est pas valide</v>
+      </c>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44" t="str">
+        <f>IFERROR(VLOOKUP(B13,'Liste des articles'!B:F,4,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="H13" s="45" t="str">
+        <f>IFERROR(VLOOKUP(B13,'Liste des articles'!B:F,5,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="I13" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>---</v>
+      </c>
+      <c r="J13" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="42"/>
+      <c r="C14" s="67" t="str">
+        <f>IFERROR(VLOOKUP(B14,'Liste des articles'!B:F,3,FALSE),"Le numero d'article n'est pas valide")</f>
+        <v>Le numero d'article n'est pas valide</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44" t="str">
+        <f>IFERROR(VLOOKUP(B14,'Liste des articles'!B:F,4,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="H14" s="45" t="str">
+        <f>IFERROR(VLOOKUP(B14,'Liste des articles'!B:F,5,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="I14" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>---</v>
+      </c>
+      <c r="J14" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="42"/>
+      <c r="C15" s="67" t="str">
+        <f>IFERROR(VLOOKUP(B15,'Liste des articles'!B:F,3,FALSE),"Le numero d'article n'est pas valide")</f>
+        <v>Le numero d'article n'est pas valide</v>
+      </c>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44" t="str">
+        <f>IFERROR(VLOOKUP(B15,'Liste des articles'!B:F,4,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="H15" s="45" t="str">
+        <f>IFERROR(VLOOKUP(B15,'Liste des articles'!B:F,5,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="I15" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>---</v>
+      </c>
+      <c r="J15" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="42"/>
+      <c r="C16" s="67" t="str">
+        <f>IFERROR(VLOOKUP(B16,'Liste des articles'!B:F,3,FALSE),"Le numero d'article n'est pas valide")</f>
+        <v>Le numero d'article n'est pas valide</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44" t="str">
+        <f>IFERROR(VLOOKUP(B16,'Liste des articles'!B:F,4,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="H16" s="45" t="str">
+        <f>IFERROR(VLOOKUP(B16,'Liste des articles'!B:F,5,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="I16" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>---</v>
+      </c>
+      <c r="J16" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="42"/>
+      <c r="C17" s="67" t="str">
+        <f>IFERROR(VLOOKUP(B17,'Liste des articles'!B:F,3,FALSE),"Le numero d'article n'est pas valide")</f>
+        <v>Le numero d'article n'est pas valide</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44" t="str">
+        <f>IFERROR(VLOOKUP(B17,'Liste des articles'!B:F,4,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="H17" s="45" t="str">
+        <f>IFERROR(VLOOKUP(B17,'Liste des articles'!B:F,5,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="I17" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>---</v>
+      </c>
+      <c r="J17" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="42"/>
+      <c r="C18" s="67" t="str">
+        <f>IFERROR(VLOOKUP(B18,'Liste des articles'!B:F,3,FALSE),"Le numero d'article n'est pas valide")</f>
+        <v>Le numero d'article n'est pas valide</v>
+      </c>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44" t="str">
+        <f>IFERROR(VLOOKUP(B18,'Liste des articles'!B:F,4,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="H18" s="45" t="str">
+        <f>IFERROR(VLOOKUP(B18,'Liste des articles'!B:F,5,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="I18" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>---</v>
+      </c>
+      <c r="J18" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="42"/>
+      <c r="C19" s="67" t="str">
+        <f>IFERROR(VLOOKUP(B19,'Liste des articles'!B:F,3,FALSE),"Le numero d'article n'est pas valide")</f>
+        <v>Le numero d'article n'est pas valide</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44" t="str">
+        <f>IFERROR(VLOOKUP(B19,'Liste des articles'!B:F,4,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="H19" s="45" t="str">
+        <f>IFERROR(VLOOKUP(B19,'Liste des articles'!B:F,5,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="I19" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>---</v>
+      </c>
+      <c r="J19" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
+      <c r="C20" s="68" t="str">
+        <f>IFERROR(VLOOKUP(B20,'Liste des articles'!B:F,3,FALSE),"Le numero d'article n'est pas valide")</f>
+        <v>Le numero d'article n'est pas valide</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="44" t="str">
+        <f>IFERROR(VLOOKUP(B20,'Liste des articles'!B:F,4,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="H20" s="45" t="str">
+        <f>IFERROR(VLOOKUP(B20,'Liste des articles'!B:F,5,FALSE),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="I20" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>---</v>
+      </c>
+      <c r="J20" s="46" t="str">
+        <f t="shared" si="1"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="69"/>
+      <c r="G23" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="69"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="49">
+        <f>COUNT(G11:G20)</f>
+        <v>2</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="51">
+        <f>SUM(I11:I20)</f>
+        <v>492000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="49">
+        <f>SUM(F11:F20)</f>
+        <v>1000</v>
+      </c>
+      <c r="G25" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="53">
+        <f>J24*0.1</f>
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="50" t="e" cm="1">
+        <f t="array" ref="E26">ROUNDUP(SUM((J11:J20)/250),0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="53" t="e">
+        <f>IF(E26&gt;=2,J24*0.05,"")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="51">
+        <f>MIN(G11:G20)</f>
+        <v>492</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="53">
+        <f>IF(SUM(J11:J20)&gt;=500,J24*0.1," ")</f>
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="51">
+        <f>MAX(G11:G20)</f>
+        <v>498</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="53">
+        <f>(J24*Configuration!C3)</f>
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="52">
+        <f>AVERAGE(G11:G20)</f>
+        <v>495</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="53">
+        <f>J24*Configuration!C4</f>
+        <v>49077</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="54" t="e">
+        <f>SUM(J24-J25-J26-J27+J28+J29)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="29" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA100" s="29" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <mergeCells count="34">
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="28" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LCédric Daigneault&amp;CPage &amp;P&amp;R25/11/22</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -6909,11 +9353,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8273C88-EE53-45AC-AE00-C7E2FFA661B7}">
   <dimension ref="B1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -6928,31 +9372,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
       <c r="I3" s="4" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
@@ -6964,7 +9408,7 @@
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="2:13" s="24" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -7092,7 +9536,7 @@
         <v>14504.6</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J7" s="28">
         <v>53882.400000000009</v>
@@ -7134,10 +9578,10 @@
     <mergeCell ref="C3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7150,29 +9594,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1215F5-3B47-4BC2-BFCF-5E78C5EAC6C5}">
-  <dimension ref="B1:F30"/>
+  <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" customWidth="1"/>
-    <col min="2" max="2" width="43.08984375" customWidth="1"/>
-    <col min="3" max="3" width="31.36328125" customWidth="1"/>
-    <col min="4" max="5" width="25.6328125" customWidth="1"/>
-    <col min="6" max="72" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="72" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" ht="21" x14ac:dyDescent="0.5">
@@ -7180,14 +9629,313 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="21" x14ac:dyDescent="0.5">
-      <c r="B12" s="21" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="30">
+        <v>74</v>
+      </c>
+      <c r="D6" s="32">
+        <v>53882.400000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="30">
+        <v>58</v>
+      </c>
+      <c r="D7" s="32">
+        <v>12940.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30">
+        <v>80</v>
+      </c>
+      <c r="D8" s="32">
+        <v>3636.6000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="30">
+        <v>212</v>
+      </c>
+      <c r="D9" s="32">
+        <v>70459.400000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="B11" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="21" x14ac:dyDescent="0.5">
-      <c r="B30" s="21" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="30">
+        <v>80</v>
+      </c>
+      <c r="D13" s="30">
+        <v>27445.000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="30">
+        <v>33</v>
+      </c>
+      <c r="D14" s="30">
+        <v>21843.800000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="30">
+        <v>17</v>
+      </c>
+      <c r="D15" s="30">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="30">
+        <v>30</v>
+      </c>
+      <c r="D16" s="30">
+        <v>1399.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="30">
+        <v>85</v>
+      </c>
+      <c r="D17" s="30">
+        <v>28509.800000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="30">
+        <v>29</v>
+      </c>
+      <c r="D18" s="30">
+        <v>20915.400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="30">
+        <v>27</v>
+      </c>
+      <c r="D19" s="30">
+        <v>6545</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="30">
+        <v>29</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1049.4000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C21" s="30">
+        <v>47</v>
+      </c>
+      <c r="D21" s="30">
+        <v>14504.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="30">
+        <v>12</v>
+      </c>
+      <c r="D22" s="30">
+        <v>11123.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="30">
+        <v>14</v>
+      </c>
+      <c r="D23" s="30">
+        <v>2193.4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="30">
+        <v>21</v>
+      </c>
+      <c r="D24" s="30">
+        <v>1188.0000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="30">
+        <v>212</v>
+      </c>
+      <c r="D25" s="30">
+        <v>70459.400000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+      <c r="B27" s="21" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C28" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="30">
+        <v>74</v>
+      </c>
+      <c r="D30" s="30">
+        <v>58</v>
+      </c>
+      <c r="E30" s="30">
+        <v>80</v>
+      </c>
+      <c r="F30" s="30">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="32">
+        <v>1924.3714285714289</v>
+      </c>
+      <c r="D31" s="32">
+        <v>616.20952380952383</v>
+      </c>
+      <c r="E31" s="32">
+        <v>129.87857142857146</v>
+      </c>
+      <c r="F31" s="32">
+        <v>915.05714285714203</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="32">
+        <v>880.00000000000011</v>
+      </c>
+      <c r="D32" s="32">
+        <v>391.6</v>
+      </c>
+      <c r="E32" s="32">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="F32" s="32">
+        <v>48.400000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="32">
+        <v>2728</v>
+      </c>
+      <c r="D33" s="32">
+        <v>827.2</v>
+      </c>
+      <c r="E33" s="32">
+        <v>195.8</v>
+      </c>
+      <c r="F33" s="32">
+        <v>2728</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +9943,7 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7204,10 +9952,10 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F12:F13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" customWidth="1"/>
     <col min="2" max="2" width="34.453125" customWidth="1"/>
@@ -7252,7 +10000,7 @@
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
@@ -7263,13 +10011,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -7798,7 +10546,7 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B31">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7809,11 +10557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CBEDB1-9E31-4D5C-844A-BAF8BEE34019}">
   <dimension ref="B1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.453125" style="1"/>
@@ -7826,17 +10574,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E2" s="1"/>
@@ -7844,11 +10592,11 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
@@ -10281,10 +13029,10 @@
   <dimension ref="B1:AA100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -10296,14 +13044,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -10501,15 +13249,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D931F8C0E0C8FD498DCE215A43B5086B" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e8cfa8c6d51e11b229aeea9a1b00dc6d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d16599ee-1fee-4a6c-bf48-0661c55be9ae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0be964f89dd4a0cbae0032f90d19e5c4" ns2:_="">
     <xsd:import namespace="d16599ee-1fee-4a6c-bf48-0661c55be9ae"/>
@@ -10681,7 +13420,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d16599ee-1fee-4a6c-bf48-0661c55be9ae">
@@ -10691,15 +13430,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E2F1E3F-78B9-499A-B5E0-D605CE99B315}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F5722B2-D11D-4EB7-BD34-A35D7CB70AD1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10717,7 +13457,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E6F21DC-4FCE-453F-A9CC-DEA9A3B0EF42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10725,4 +13465,12 @@
     <ds:schemaRef ds:uri="d16599ee-1fee-4a6c-bf48-0661c55be9ae"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E2F1E3F-78B9-499A-B5E0-D605CE99B315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>